--- a/views.tests.xlsx
+++ b/views.tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodion/Documents/comraz/rise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BAEF7DD-564D-F046-9CF0-9E162A095CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA28ED-D833-D642-8832-A741D058CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,150 +20,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>Pre-conditions</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>TC09</t>
-  </si>
-  <si>
-    <t>Register User</t>
-  </si>
-  <si>
-    <t>Login User</t>
-  </si>
-  <si>
-    <t>Get User</t>
-  </si>
-  <si>
-    <t>Logout User</t>
-  </si>
-  <si>
-    <t>Delete User</t>
-  </si>
-  <si>
-    <t>Create Expenses</t>
-  </si>
-  <si>
-    <t>Create Expense Type</t>
-  </si>
-  <si>
-    <t>Create Suggestion</t>
-  </si>
-  <si>
-    <t>Create Suggestion Type</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>User registered</t>
-  </si>
-  <si>
-    <t>User logged in</t>
-  </si>
-  <si>
-    <t>User logged in, ExpenseType exists</t>
-  </si>
-  <si>
-    <t>User logged in, SuggestionType exists</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /register_user with valid username and password.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /login_user with valid username and password.
-2. Check the session.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /get_user with valid username.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /logout_user.
-2. Check the session.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /delete_user with valid username and password.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /create_expenses with valid data.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /create-expense-type with valid name.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /create_suggestion with valid data.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>1. Send POST request to /create-suggestion-type with valid name.
-2. Check the response.</t>
-  </si>
-  <si>
-    <t>Status 200, JSON response contains "user_id".</t>
-  </si>
-  <si>
-    <t>Status 200, session contains "user_id".</t>
-  </si>
-  <si>
-    <t>Status 200, JSON response contains "username".</t>
-  </si>
-  <si>
-    <t>Status 200, session does not contain "user_id".</t>
-  </si>
-  <si>
-    <t>Status 200, user no longer exists in the database.</t>
-  </si>
-  <si>
-    <t>Status 201, JSON response contains "Success".</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Expected Status Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>test_register_user</t>
+  </si>
+  <si>
+    <t>test_login_user</t>
+  </si>
+  <si>
+    <t>test_get_user</t>
+  </si>
+  <si>
+    <t>test_logout_user</t>
+  </si>
+  <si>
+    <t>test_delete_user</t>
+  </si>
+  <si>
+    <t>test_create_expenses</t>
+  </si>
+  <si>
+    <t>test_create_expense_type</t>
+  </si>
+  <si>
+    <t>test_create_suggestion</t>
+  </si>
+  <si>
+    <t>test_create_suggestion_type</t>
+  </si>
+  <si>
+    <t>Input Data</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Username: 'testuser', Password: 'testpassword'</t>
+  </si>
+  <si>
+    <t>Register a user with unique username; return user ID and success message.</t>
+  </si>
+  <si>
+    <t>Tests user registration functionality with specific input data and checks for unique username.</t>
+  </si>
+  <si>
+    <t>Authenticate user and start a session; return user ID and token.</t>
+  </si>
+  <si>
+    <t>Tests user login functionality including session handling and token issuance.</t>
+  </si>
+  <si>
+    <t>Username: 'testuser'</t>
+  </si>
+  <si>
+    <t>Retrieve and return user data based on username; include additional session data if available.</t>
+  </si>
+  <si>
+    <t>Tests retrieving user data functionality based on username, checks session for additional data.</t>
+  </si>
+  <si>
+    <t>No input data required (uses session data)</t>
+  </si>
+  <si>
+    <t>Terminate user session and return logout confirmation.</t>
+  </si>
+  <si>
+    <t>Tests user logout functionality to ensure session is terminated properly.</t>
+  </si>
+  <si>
+    <t>Verify user by username and password, then delete user; confirm deletion.</t>
+  </si>
+  <si>
+    <t>Tests user deletion functionality with authentication and subsequent user removal.</t>
+  </si>
+  <si>
+    <t>UserID: User ID, Date: '2023-05-25', Amount: 100, Description: 'Groceries', TypeID: Expense Type ID</t>
+  </si>
+  <si>
+    <t>Create an expense record for the user; return success message with expense ID.</t>
+  </si>
+  <si>
+    <t>Tests creating an expense record with detailed data about the expense.</t>
+  </si>
+  <si>
+    <t>Name: 'Transport'</t>
+  </si>
+  <si>
+    <t>Create an expense type with given name; return success message with type ID.</t>
+  </si>
+  <si>
+    <t>Tests creating an expense type with a name, checking for successful creation and database entry.</t>
+  </si>
+  <si>
+    <t>UserID: User ID, Description: 'Use LED bulbs', Saved Money: 20, Rating: 5, TypeID: Suggestion Type ID</t>
+  </si>
+  <si>
+    <t>Delete existing suggestions, create a new suggestion; return success message with suggestion ID.</t>
+  </si>
+  <si>
+    <t>Tests creating and replacing suggestions with detailed information on the suggestion.</t>
+  </si>
+  <si>
+    <t>Name: 'Recycle', Price: 10</t>
+  </si>
+  <si>
+    <t>Create a suggestion type with specified name and price; return success message with type ID.</t>
+  </si>
+  <si>
+    <t>Tests creating a suggestion type with specified attributes and checking for successful entry in the database.</t>
   </si>
 </sst>
 </file>
@@ -531,197 +504,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="351" zoomScaleNormal="351" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="117" zoomScaleNormal="351" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="74.5" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" customWidth="1"/>
+    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="85.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>201</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
